--- a/documentation/database_instance/DatabaseInstance.xlsx
+++ b/documentation/database_instance/DatabaseInstance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Course</t>
   </si>
@@ -39,36 +39,6 @@
     <t>GE_Code</t>
   </si>
   <si>
-    <t>ANTH</t>
-  </si>
-  <si>
-    <t>Intro to Linguistic Anthro</t>
-  </si>
-  <si>
-    <t>GED5</t>
-  </si>
-  <si>
-    <t>Intro to Biological Anthro</t>
-  </si>
-  <si>
-    <t>GEB2</t>
-  </si>
-  <si>
-    <t>Introduction to Archaeology</t>
-  </si>
-  <si>
-    <t>Intro to Cultural Anthro</t>
-  </si>
-  <si>
-    <t>GED1</t>
-  </si>
-  <si>
-    <t>Nature,Cult,Theory:Growth Anth</t>
-  </si>
-  <si>
-    <t>Primate Behavioral Ecology</t>
-  </si>
-  <si>
     <t>Course Instance</t>
   </si>
   <si>
@@ -232,6 +202,27 @@
   </si>
   <si>
     <t>Student Major</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Intro Unix</t>
+  </si>
+  <si>
+    <t>Intro C++ Programming</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Datastructures</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
   </si>
 </sst>
 </file>
@@ -775,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BI14" sqref="BI14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -785,14 +776,14 @@
     <col min="2" max="2" width="9.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" style="33"/>
     <col min="9" max="9" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.42578125" style="33"/>
-    <col min="12" max="12" width="15.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="33" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.42578125" style="33"/>
     <col min="15" max="15" width="8.140625" style="33" bestFit="1" customWidth="1"/>
@@ -859,37 +850,37 @@
       <c r="F2" s="17"/>
       <c r="G2" s="32"/>
       <c r="I2" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J2" s="32"/>
       <c r="L2" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M2" s="32"/>
       <c r="O2" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P2" s="32"/>
       <c r="R2" s="11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="S2" s="32"/>
       <c r="U2" s="11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="13"/>
       <c r="Y2" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="13"/>
       <c r="AC2" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="32"/>
       <c r="AF2" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG2" s="32"/>
       <c r="AI2" s="11" t="s">
@@ -905,29 +896,29 @@
       <c r="AP2" s="12"/>
       <c r="AQ2" s="13"/>
       <c r="AS2" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT2" s="32"/>
       <c r="AV2" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AW2" s="17"/>
       <c r="AX2" s="12"/>
       <c r="AY2" s="12"/>
       <c r="AZ2" s="13"/>
       <c r="BB2" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="BC2" s="17"/>
       <c r="BD2" s="13"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BG2" s="17"/>
       <c r="BH2" s="7"/>
       <c r="BI2" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="BJ2" s="32"/>
       <c r="BL2"/>
@@ -955,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>1</v>
@@ -973,105 +964,105 @@
         <v>1</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL3" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="AN3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO3" s="15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AP3" s="31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AQ3" s="24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AS3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AT3" s="16" t="s">
+      <c r="AY3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AV3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="AZ3" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BB3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="BC3" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="BD3" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BE3" s="10"/>
       <c r="BF3" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BG3" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BH3" s="10"/>
       <c r="BI3" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BJ3" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BL3"/>
     </row>
@@ -1080,20 +1071,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="I4" s="1">
         <v>1</v>
       </c>
@@ -1104,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
@@ -1122,19 +1111,19 @@
         <v>1</v>
       </c>
       <c r="V4" s="2">
-        <v>735</v>
+        <v>1</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="28">
         <v>182</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="28">
         <v>1</v>
@@ -1158,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="AL4" s="30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AN4" s="28">
         <v>1002</v>
@@ -1170,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="AQ4" s="30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AS4" s="28">
         <v>1570</v>
@@ -1180,7 +1169,7 @@
         <v>1002</v>
       </c>
       <c r="AW4" s="29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AX4" s="29">
         <v>1200</v>
@@ -1189,16 +1178,16 @@
         <v>1250</v>
       </c>
       <c r="AZ4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB4" s="25">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="BB4" s="25">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="BD4" s="27" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="35"/>
@@ -1213,20 +1202,18 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="I5" s="1">
         <v>2</v>
       </c>
@@ -1243,19 +1230,19 @@
         <v>1</v>
       </c>
       <c r="V5" s="2">
-        <v>827</v>
+        <v>2</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y5" s="1">
         <v>208</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="1">
         <v>2</v>
@@ -1279,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AN5" s="1">
         <v>1003</v>
@@ -1291,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AS5" s="1">
         <v>1571</v>
@@ -1301,7 +1288,7 @@
         <v>1002</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AX5" s="2">
         <v>1200</v>
@@ -1310,16 +1297,16 @@
         <v>1250</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="BB5" s="18">
         <v>2</v>
       </c>
       <c r="BC5" s="19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BD5" s="20" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
@@ -1334,23 +1321,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
@@ -1362,19 +1349,19 @@
         <v>1</v>
       </c>
       <c r="V6" s="2">
-        <v>738</v>
+        <v>3</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="1">
         <v>221</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC6" s="4">
         <v>3</v>
@@ -1398,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN6" s="1">
         <v>1004</v>
@@ -1410,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AS6" s="1">
         <v>1725</v>
@@ -1420,7 +1407,7 @@
         <v>1002</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AX6" s="2">
         <v>1200</v>
@@ -1429,16 +1416,16 @@
         <v>1250</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="BB6" s="21">
         <v>3</v>
       </c>
       <c r="BC6" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="BD6" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
@@ -1453,25 +1440,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>203</v>
+        <v>62</v>
+      </c>
+      <c r="D7" s="33">
+        <v>315</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
@@ -1483,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="V7" s="2">
-        <v>737</v>
+        <v>4</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y7" s="1">
         <v>338</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1513,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN7" s="1">
         <v>1005</v>
@@ -1525,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AS7" s="1">
         <v>1942</v>
@@ -1535,7 +1520,7 @@
         <v>1003</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AX7" s="2">
         <v>1300</v>
@@ -1544,7 +1529,7 @@
         <v>1540</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="BF7" s="7"/>
       <c r="BG7" s="8"/>
@@ -1558,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1574,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
@@ -1586,19 +1571,19 @@
         <v>1</v>
       </c>
       <c r="V8" s="2">
-        <v>739</v>
+        <v>5</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="1">
         <v>377</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AF8" s="1">
         <v>2</v>
@@ -1616,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN8" s="1">
         <v>1006</v>
@@ -1628,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AS8" s="1">
         <v>1943</v>
@@ -1638,7 +1623,7 @@
         <v>1004</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AX8" s="2">
         <v>1800</v>
@@ -1647,7 +1632,7 @@
         <v>2140</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="BF8" s="7"/>
       <c r="BG8" s="8"/>
@@ -1661,13 +1646,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -1677,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="6"/>
@@ -1689,19 +1674,19 @@
         <v>1</v>
       </c>
       <c r="V9" s="5">
-        <v>740</v>
+        <v>6</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="4">
         <v>403</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AF9" s="4">
         <v>2</v>
@@ -1719,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN9" s="4">
         <v>1007</v>
@@ -1731,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AS9" s="4">
         <v>1944</v>
@@ -1741,7 +1726,7 @@
         <v>1005</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AX9" s="5">
         <v>1200</v>
@@ -1750,7 +1735,7 @@
         <v>1350</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="BF9" s="36"/>
       <c r="BG9" s="37"/>
